--- a/assets/scores.xlsx
+++ b/assets/scores.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teun\Documents\VSCODE\rosette\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C43B1EF-FF49-4F01-8487-20A2C834397F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BBC7CC-20FB-400B-9389-B93C009037A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="1935" windowWidth="12135" windowHeight="13665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3165" yWindow="1935" windowWidth="12135" windowHeight="13665" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>Tom De Vriendt</t>
   </si>
@@ -59,6 +60,12 @@
   </si>
   <si>
     <t>French</t>
+  </si>
+  <si>
+    <t>Tom Gullen</t>
+  </si>
+  <si>
+    <t>Dutch</t>
   </si>
 </sst>
 </file>
@@ -379,7 +386,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,6 +514,175 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3431A8AC-CE36-4A67-BC8A-2D50F94D56BA}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED49858C-062E-4904-815E-2BC6DCA81B32}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
